--- a/user_preferences.xlsx
+++ b/user_preferences.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -408,27 +408,13 @@
         <v>2222</v>
       </c>
       <c r="B2">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="C2">
         <v>5</v>
       </c>
       <c r="D2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>2222</v>
-      </c>
-      <c r="B3">
-        <v>150</v>
-      </c>
-      <c r="C3">
-        <v>5</v>
-      </c>
-      <c r="D3">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/user_preferences.xlsx
+++ b/user_preferences.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,6 +417,146 @@
         <v>10</v>
       </c>
     </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>1493</v>
+      </c>
+      <c r="B3">
+        <v>114</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>1493</v>
+      </c>
+      <c r="B4">
+        <v>114</v>
+      </c>
+      <c r="C4">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>1493</v>
+      </c>
+      <c r="B5">
+        <v>114</v>
+      </c>
+      <c r="C5">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>1493</v>
+      </c>
+      <c r="B6">
+        <v>114</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>1493</v>
+      </c>
+      <c r="B7">
+        <v>114</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>1493</v>
+      </c>
+      <c r="B8">
+        <v>114</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>1493</v>
+      </c>
+      <c r="B9">
+        <v>114</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>1493</v>
+      </c>
+      <c r="B10">
+        <v>114</v>
+      </c>
+      <c r="C10">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>1493</v>
+      </c>
+      <c r="B11">
+        <v>114</v>
+      </c>
+      <c r="C11">
+        <v>7</v>
+      </c>
+      <c r="D11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>2000</v>
+      </c>
+      <c r="B12">
+        <v>149</v>
+      </c>
+      <c r="C12">
+        <v>7</v>
+      </c>
+      <c r="D12">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/user_preferences.xlsx
+++ b/user_preferences.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -557,6 +557,20 @@
         <v>20</v>
       </c>
     </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>2000</v>
+      </c>
+      <c r="B13">
+        <v>149</v>
+      </c>
+      <c r="C13">
+        <v>7</v>
+      </c>
+      <c r="D13">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
